--- a/data/trans_dic/P32E$bar_2023-Nacimiento-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Nacimiento-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -762,7 +762,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
